--- a/run/output/iecorrect/iecorrect-noidnovalue.xlsx
+++ b/run/output/iecorrect/iecorrect-noidnovalue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\iefieldkit\run\output\iecorrect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE79751-1CDB-4B52-BE72-53AB1354BF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B5D203-6FDF-46E8-AC11-E2169753DB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="915" yWindow="-120" windowWidth="28005" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -466,10 +468,10 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
@@ -483,7 +485,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -513,20 +515,18 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
@@ -538,8 +538,8 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>3</v>
+      <c r="D3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
